--- a/tb_beta.xlsx
+++ b/tb_beta.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyc\Desktop\CTModeling\matlabTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyc\Desktop\exercise\shanshan\tb_reff_ngm\无季节性模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1720CBA-9BC4-4CB5-9074-545A07B439D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733E827-2BC5-4253-9E87-FFDAFE52D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{56E3ABC6-0EDC-44B7-A34B-B4FAFD67AB8D}"/>
   </bookViews>
   <sheets>
     <sheet name="chuxiong" sheetId="1" r:id="rId1"/>
     <sheet name="xiamen" sheetId="2" r:id="rId2"/>
-    <sheet name="wuhan" sheetId="3" r:id="rId3"/>
-    <sheet name="jilin" sheetId="4" r:id="rId4"/>
+    <sheet name="wuhan_1" sheetId="3" r:id="rId3"/>
+    <sheet name="wuhan_2" sheetId="5" r:id="rId4"/>
+    <sheet name="jilin" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>b11</t>
   </si>
@@ -455,7 +456,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,16 +483,16 @@
         <v>2008</v>
       </c>
       <c r="B2" s="2">
-        <v>6.3314199999999996E-9</v>
+        <v>3.64366E-13</v>
       </c>
       <c r="C2" s="2">
-        <v>1.9965200000000001E-8</v>
+        <v>2.1265799999999999E-8</v>
       </c>
       <c r="D2" s="2">
-        <v>1.9384700000000001E-16</v>
+        <v>9.3752000000000005E-8</v>
       </c>
       <c r="E2" s="2">
-        <v>1.44023E-16</v>
+        <v>1.5914100000000002E-8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,16 +500,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="2">
-        <v>5.8619499999999996E-9</v>
+        <v>6.7597399999999999E-7</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0078899999999999E-8</v>
+        <v>2.8851700000000002E-7</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0363799999999999E-17</v>
+        <v>1.21384E-7</v>
       </c>
       <c r="E3" s="2">
-        <v>2.01239E-16</v>
+        <v>2.3613500000000001E-14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -516,16 +517,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="2">
-        <v>7.1204900000000001E-9</v>
+        <v>2.5324799999999999E-8</v>
       </c>
       <c r="C4" s="2">
-        <v>1.6386600000000001E-8</v>
+        <v>2.4506700000000002E-9</v>
       </c>
       <c r="D4" s="2">
-        <v>2.9962099999999998E-15</v>
+        <v>1.4266799999999999E-7</v>
       </c>
       <c r="E4" s="2">
-        <v>2.9264000000000002E-9</v>
+        <v>1.85052E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,16 +534,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="2">
-        <v>1.09143E-7</v>
+        <v>3.8887199999999998E-14</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8535299999999997E-7</v>
+        <v>3.7411499999999997E-8</v>
       </c>
       <c r="D5" s="2">
-        <v>6.9314800000000001E-9</v>
+        <v>1.49472E-7</v>
       </c>
       <c r="E5" s="2">
-        <v>1.3390700000000001E-12</v>
+        <v>1.5287899999999999E-8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,16 +551,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="2">
-        <v>4.9571000000000004E-10</v>
+        <v>4.0079799999999996E-12</v>
       </c>
       <c r="C6" s="2">
-        <v>2.31425E-8</v>
+        <v>2.9694199999999999E-8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.8755200000000003E-8</v>
+        <v>2.3822700000000001E-7</v>
       </c>
       <c r="E6" s="2">
-        <v>4.0477499999999998E-9</v>
+        <v>1.8712799999999999E-8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,16 +568,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="2">
-        <v>3.0191500000000001E-12</v>
+        <v>2.4370100000000001E-8</v>
       </c>
       <c r="C7" s="2">
-        <v>1.8293099999999999E-8</v>
+        <v>2.5826900000000002E-12</v>
       </c>
       <c r="D7" s="2">
-        <v>7.7922600000000002E-11</v>
+        <v>2.4186599999999998E-7</v>
       </c>
       <c r="E7" s="2">
-        <v>5.0711799999999997E-14</v>
+        <v>2.1773799999999999E-8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,16 +585,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="2">
-        <v>1.8385999999999999E-11</v>
+        <v>5.0066900000000002E-8</v>
       </c>
       <c r="C8" s="2">
-        <v>1.5847400000000001E-8</v>
+        <v>5.3161900000000004E-13</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2267499999999999E-9</v>
+        <v>2.4198499999999998E-7</v>
       </c>
       <c r="E8" s="2">
-        <v>2.2298299999999999E-9</v>
+        <v>4.4697E-8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,16 +602,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="2">
-        <v>4.7284200000000002E-12</v>
+        <v>4.2285999999999999E-8</v>
       </c>
       <c r="C9" s="2">
-        <v>1.5338300000000001E-8</v>
+        <v>1.9580999999999999E-10</v>
       </c>
       <c r="D9" s="2">
-        <v>1.29331E-9</v>
+        <v>2.3093199999999999E-7</v>
       </c>
       <c r="E9" s="2">
-        <v>4.9184500000000002E-14</v>
+        <v>6.0014699999999995E-8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,16 +619,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="2">
-        <v>6.1968099999999998E-15</v>
+        <v>2.0505200000000002E-8</v>
       </c>
       <c r="C10" s="2">
-        <v>4.3763799999999998E-10</v>
+        <v>3.1138300000000002E-9</v>
       </c>
       <c r="D10" s="2">
-        <v>3.6193400000000002E-15</v>
+        <v>2.1892200000000001E-7</v>
       </c>
       <c r="E10" s="2">
-        <v>1.01868E-11</v>
+        <v>4.0834E-8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,16 +636,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="2">
-        <v>1.43831E-13</v>
+        <v>1.67815E-13</v>
       </c>
       <c r="C11" s="2">
-        <v>4.55944E-8</v>
+        <v>2.7512300000000001E-8</v>
       </c>
       <c r="D11" s="2">
-        <v>8.3336799999999993E-9</v>
+        <v>2.22463E-7</v>
       </c>
       <c r="E11" s="2">
-        <v>5.9995800000000004E-15</v>
+        <v>5.1972200000000001E-8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,16 +653,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="2">
-        <v>6.6969099999999998E-9</v>
+        <v>1.15715E-6</v>
       </c>
       <c r="C12" s="2">
-        <v>1.9815400000000001E-8</v>
+        <v>1.5399399999999999E-6</v>
       </c>
       <c r="D12" s="2">
-        <v>4.6267599999999999E-16</v>
+        <v>1.15492E-7</v>
       </c>
       <c r="E12" s="2">
-        <v>1.49913E-14</v>
+        <v>4.0101000000000002E-15</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +676,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,16 +703,16 @@
         <v>2005</v>
       </c>
       <c r="B2" s="3">
-        <v>4.1972300000000003E-8</v>
+        <v>7.2957699999999994E-8</v>
       </c>
       <c r="C2" s="4">
-        <v>9.6161099999999999E-12</v>
+        <v>6.26864E-9</v>
       </c>
       <c r="D2" s="4">
-        <v>2.12174E-7</v>
+        <v>4.3632300000000001E-7</v>
       </c>
       <c r="E2" s="4">
-        <v>1.7080999999999999E-8</v>
+        <v>3.2286000000000002E-8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,16 +720,16 @@
         <v>2006</v>
       </c>
       <c r="B3" s="4">
-        <v>1.30799E-8</v>
+        <v>5.1089799999999999E-8</v>
       </c>
       <c r="C3" s="4">
-        <v>1.3935199999999999E-12</v>
+        <v>2.80501E-12</v>
       </c>
       <c r="D3" s="4">
-        <v>1.1548699999999999E-7</v>
+        <v>2.96997E-7</v>
       </c>
       <c r="E3" s="4">
-        <v>1.30334E-8</v>
+        <v>2.20562E-8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,16 +737,16 @@
         <v>2007</v>
       </c>
       <c r="B4" s="4">
-        <v>1.49936E-8</v>
+        <v>4.0598999999999998E-8</v>
       </c>
       <c r="C4" s="4">
-        <v>2.6402E-12</v>
+        <v>2.0557399999999999E-13</v>
       </c>
       <c r="D4" s="4">
-        <v>9.0943299999999999E-8</v>
+        <v>2.3408299999999999E-7</v>
       </c>
       <c r="E4" s="4">
-        <v>2.24699E-8</v>
+        <v>3.0532099999999997E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,16 +754,16 @@
         <v>2008</v>
       </c>
       <c r="B5" s="4">
-        <v>1.19087E-8</v>
+        <v>8.25988E-7</v>
       </c>
       <c r="C5" s="4">
-        <v>4.8953599999999999E-9</v>
+        <v>2.1478399999999999E-9</v>
       </c>
       <c r="D5" s="4">
-        <v>8.8412600000000004E-8</v>
+        <v>2.1661100000000001E-7</v>
       </c>
       <c r="E5" s="4">
-        <v>1.0476400000000001E-8</v>
+        <v>4.0774699999999999E-14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,16 +771,16 @@
         <v>2009</v>
       </c>
       <c r="B6" s="4">
-        <v>2.9620199999999999E-12</v>
+        <v>8.2489499999999999E-14</v>
       </c>
       <c r="C6" s="4">
-        <v>4.3543500000000002E-8</v>
+        <v>1.9503100000000001E-8</v>
       </c>
       <c r="D6" s="4">
-        <v>9.6700100000000004E-8</v>
+        <v>2.2307E-7</v>
       </c>
       <c r="E6" s="4">
-        <v>1.37867E-8</v>
+        <v>2.1469600000000001E-8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,16 +788,16 @@
         <v>2010</v>
       </c>
       <c r="B7" s="4">
-        <v>5.85777E-8</v>
+        <v>1.1977800000000001E-8</v>
       </c>
       <c r="C7" s="4">
-        <v>1.6014400000000001E-12</v>
+        <v>4.2045399999999998E-13</v>
       </c>
       <c r="D7" s="4">
-        <v>6.5116100000000004E-8</v>
+        <v>2.5994700000000002E-7</v>
       </c>
       <c r="E7" s="4">
-        <v>6.7371200000000004E-9</v>
+        <v>1.9055699999999999E-8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,16 +805,16 @@
         <v>2011</v>
       </c>
       <c r="B8" s="4">
-        <v>1.0184899999999999E-8</v>
+        <v>5.1957299999999998E-9</v>
       </c>
       <c r="C8" s="4">
-        <v>6.7236100000000005E-13</v>
+        <v>9.9199299999999996E-14</v>
       </c>
       <c r="D8" s="4">
-        <v>4.17872E-8</v>
+        <v>1.37583E-7</v>
       </c>
       <c r="E8" s="4">
-        <v>1.11587E-8</v>
+        <v>2.11361E-8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,16 +822,16 @@
         <v>2012</v>
       </c>
       <c r="B9" s="4">
-        <v>1.24481E-9</v>
+        <v>2.3351499999999999E-8</v>
       </c>
       <c r="C9" s="4">
-        <v>1.7160600000000001E-12</v>
+        <v>3.36729E-13</v>
       </c>
       <c r="D9" s="4">
-        <v>2.5286600000000002E-8</v>
+        <v>1.20615E-7</v>
       </c>
       <c r="E9" s="4">
-        <v>7.3908699999999997E-9</v>
+        <v>1.1906700000000001E-8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,16 +839,16 @@
         <v>2013</v>
       </c>
       <c r="B10" s="4">
-        <v>1.40693E-8</v>
+        <v>1.5455900000000001E-8</v>
       </c>
       <c r="C10" s="4">
-        <v>4.3379800000000001E-12</v>
+        <v>6.1244799999999999E-9</v>
       </c>
       <c r="D10" s="4">
-        <v>2.63938E-8</v>
+        <v>1.2154499999999999E-7</v>
       </c>
       <c r="E10" s="4">
-        <v>3.3298400000000002E-9</v>
+        <v>1.1110200000000001E-8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,16 +856,16 @@
         <v>2014</v>
       </c>
       <c r="B11" s="4">
-        <v>3.0442100000000001E-8</v>
+        <v>2.4821000000000001E-8</v>
       </c>
       <c r="C11" s="4">
-        <v>3.0532100000000001E-12</v>
+        <v>1.7183100000000001E-13</v>
       </c>
       <c r="D11" s="4">
-        <v>1.6957300000000001E-8</v>
+        <v>1.05906E-7</v>
       </c>
       <c r="E11" s="4">
-        <v>5.6188800000000003E-9</v>
+        <v>1.2661E-8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,16 +873,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="4">
-        <v>3.7837799999999998E-7</v>
+        <v>1.88823E-8</v>
       </c>
       <c r="C12" s="4">
-        <v>5.4947000000000001E-7</v>
+        <v>7.74206E-13</v>
       </c>
       <c r="D12" s="4">
-        <v>9.1881199999999995E-9</v>
+        <v>9.9178899999999999E-8</v>
       </c>
       <c r="E12" s="4">
-        <v>1.98384E-9</v>
+        <v>1.1927E-8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,16 +890,16 @@
         <v>2016</v>
       </c>
       <c r="B13" s="4">
-        <v>1.6988600000000001E-9</v>
+        <v>3.0882300000000001E-7</v>
       </c>
       <c r="C13" s="4">
-        <v>5.99868E-12</v>
+        <v>1.39512E-5</v>
       </c>
       <c r="D13" s="4">
-        <v>8.2927000000000005E-9</v>
+        <v>1.03998E-15</v>
       </c>
       <c r="E13" s="4">
-        <v>1.33339E-14</v>
+        <v>3.8943699999999997E-12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,16 +907,16 @@
         <v>2017</v>
       </c>
       <c r="B14" s="4">
-        <v>1.4916899999999998E-8</v>
+        <v>1.3522500000000001E-8</v>
       </c>
       <c r="C14" s="4">
-        <v>2.56E-12</v>
+        <v>6.0738000000000003E-9</v>
       </c>
       <c r="D14" s="4">
-        <v>3.5336E-8</v>
+        <v>1.13217E-7</v>
       </c>
       <c r="E14" s="4">
-        <v>3.6933600000000002E-9</v>
+        <v>6.3190499999999996E-9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,16 +924,16 @@
         <v>2018</v>
       </c>
       <c r="B15" s="4">
-        <v>1.1185800000000001E-8</v>
+        <v>2.0400399999999999E-8</v>
       </c>
       <c r="C15" s="4">
-        <v>1.62091E-12</v>
+        <v>1.15291E-12</v>
       </c>
       <c r="D15" s="4">
-        <v>2.41534E-8</v>
+        <v>1.11859E-7</v>
       </c>
       <c r="E15" s="4">
-        <v>4.1011999999999999E-9</v>
+        <v>1.1062100000000001E-8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,16 +941,16 @@
         <v>2019</v>
       </c>
       <c r="B16" s="4">
-        <v>1.0575E-10</v>
+        <v>1.6987200000000001E-12</v>
       </c>
       <c r="C16" s="4">
-        <v>6.7642499999999997E-9</v>
+        <v>3.0896500000000001E-8</v>
       </c>
       <c r="D16" s="4">
-        <v>2.4297799999999999E-8</v>
+        <v>1.92072E-7</v>
       </c>
       <c r="E16" s="4">
-        <v>1.7750400000000001E-14</v>
+        <v>1.7217600000000001E-8</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +964,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,16 +991,16 @@
         <v>2005</v>
       </c>
       <c r="B2" s="2">
-        <v>8.7447799999999992E-9</v>
+        <v>1.7818199999999999E-8</v>
       </c>
       <c r="C2" s="2">
-        <v>1.18715E-12</v>
+        <v>9.2842199999999994E-14</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0890800000000001E-8</v>
+        <v>6.0196900000000001E-8</v>
       </c>
       <c r="E2" s="2">
-        <v>1.06032E-8</v>
+        <v>2.5108299999999999E-8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +1008,16 @@
         <v>2006</v>
       </c>
       <c r="B3" s="2">
-        <v>5.3059299999999997E-9</v>
+        <v>1.7476E-8</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3508899999999998E-14</v>
+        <v>2.4054599999999998E-13</v>
       </c>
       <c r="D3" s="2">
-        <v>1.6712999999999999E-8</v>
+        <v>6.8808700000000001E-8</v>
       </c>
       <c r="E3" s="2">
-        <v>1.3173200000000001E-8</v>
+        <v>2.7746799999999999E-8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +1025,16 @@
         <v>2007</v>
       </c>
       <c r="B4" s="2">
-        <v>9.2678299999999993E-13</v>
+        <v>9.5919799999999995E-14</v>
       </c>
       <c r="C4" s="2">
-        <v>4.06441E-13</v>
+        <v>2.26219E-11</v>
       </c>
       <c r="D4" s="2">
-        <v>1.8273800000000001E-8</v>
+        <v>6.7798499999999997E-8</v>
       </c>
       <c r="E4" s="2">
-        <v>8.0227499999999998E-9</v>
+        <v>2.5590599999999999E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,16 +1042,16 @@
         <v>2008</v>
       </c>
       <c r="B5" s="2">
-        <v>5.4482700000000003E-9</v>
+        <v>1.19E-13</v>
       </c>
       <c r="C5" s="2">
-        <v>3.9631999999999997E-14</v>
+        <v>1.9500000000000001E-9</v>
       </c>
       <c r="D5" s="2">
-        <v>1.65472E-8</v>
+        <v>6.4500000000000002E-8</v>
       </c>
       <c r="E5" s="2">
-        <v>1.4179799999999999E-8</v>
+        <v>2.77E-8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,16 +1059,16 @@
         <v>2009</v>
       </c>
       <c r="B6" s="2">
-        <v>7.1953099999999996E-9</v>
+        <v>9.0799999999999993E-9</v>
       </c>
       <c r="C6" s="2">
-        <v>4.2839399999999999E-13</v>
+        <v>2.8000000000000001E-14</v>
       </c>
       <c r="D6" s="2">
-        <v>1.2455E-8</v>
+        <v>4.9000000000000002E-8</v>
       </c>
       <c r="E6" s="2">
-        <v>1.11369E-8</v>
+        <v>2.81E-8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,16 +1076,16 @@
         <v>2010</v>
       </c>
       <c r="B7" s="2">
-        <v>8.41866E-9</v>
+        <v>1.87965E-13</v>
       </c>
       <c r="C7" s="2">
-        <v>1.4720300000000001E-13</v>
+        <v>1.5810799999999999E-10</v>
       </c>
       <c r="D7" s="2">
-        <v>1.26118E-8</v>
+        <v>5.2905100000000002E-8</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0982E-8</v>
+        <v>2.4690199999999999E-8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +1093,16 @@
         <v>2011</v>
       </c>
       <c r="B8" s="2">
-        <v>7.07128E-9</v>
+        <v>1.14284E-8</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2542100000000002E-14</v>
+        <v>1.4019600000000001E-13</v>
       </c>
       <c r="D8" s="2">
-        <v>1.58538E-8</v>
+        <v>4.79661E-8</v>
       </c>
       <c r="E8" s="2">
-        <v>1.5366200000000001E-8</v>
+        <v>2.4456800000000001E-8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1110,16 @@
         <v>2012</v>
       </c>
       <c r="B9" s="2">
-        <v>3.95272E-9</v>
+        <v>2.07E-8</v>
       </c>
       <c r="C9" s="2">
-        <v>1.3893199999999999E-14</v>
+        <v>8.5200000000000006E-14</v>
       </c>
       <c r="D9" s="2">
-        <v>1.62779E-8</v>
+        <v>4.9199999999999997E-8</v>
       </c>
       <c r="E9" s="2">
-        <v>1.1613600000000001E-8</v>
+        <v>2.1200000000000001E-8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,16 +1127,16 @@
         <v>2013</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0769199999999999E-9</v>
+        <v>1.16E-8</v>
       </c>
       <c r="C10" s="2">
-        <v>4.0315700000000004E-12</v>
+        <v>2.5299999999999998E-13</v>
       </c>
       <c r="D10" s="2">
-        <v>1.09682E-8</v>
+        <v>4.8E-8</v>
       </c>
       <c r="E10" s="2">
-        <v>8.8829100000000003E-9</v>
+        <v>2.1500000000000001E-8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,16 +1144,16 @@
         <v>2014</v>
       </c>
       <c r="B11" s="2">
-        <v>8.8667400000000008E-9</v>
+        <v>1.3200000000000001E-8</v>
       </c>
       <c r="C11" s="2">
-        <v>2.3454499999999999E-13</v>
+        <v>1.04E-13</v>
       </c>
       <c r="D11" s="2">
-        <v>7.16862E-9</v>
+        <v>4.3399999999999998E-8</v>
       </c>
       <c r="E11" s="2">
-        <v>9.4849499999999992E-9</v>
+        <v>1.99E-8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,16 +1161,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="2">
-        <v>2.14332E-9</v>
+        <v>1.42E-8</v>
       </c>
       <c r="C12" s="2">
-        <v>4.7205600000000002E-13</v>
+        <v>3.5100000000000002E-13</v>
       </c>
       <c r="D12" s="2">
-        <v>1.00875E-8</v>
+        <v>4.5200000000000001E-8</v>
       </c>
       <c r="E12" s="2">
-        <v>7.0927200000000003E-9</v>
+        <v>1.6099999999999999E-8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,16 +1178,16 @@
         <v>2016</v>
       </c>
       <c r="B13" s="2">
-        <v>1.4697799999999999E-8</v>
+        <v>1.1879199999999999E-8</v>
       </c>
       <c r="C13" s="2">
-        <v>7.8412600000000003E-14</v>
+        <v>2.53866E-14</v>
       </c>
       <c r="D13" s="2">
-        <v>1.3645799999999999E-8</v>
+        <v>4.72027E-8</v>
       </c>
       <c r="E13" s="2">
-        <v>1.11137E-8</v>
+        <v>2.3791500000000002E-8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,16 +1195,16 @@
         <v>2017</v>
       </c>
       <c r="B14" s="2">
-        <v>8.8114499999999998E-9</v>
+        <v>1.02795E-8</v>
       </c>
       <c r="C14" s="2">
-        <v>6.4162299999999996E-13</v>
+        <v>2.1084300000000001E-12</v>
       </c>
       <c r="D14" s="2">
-        <v>1.3927E-8</v>
+        <v>4.9022699999999999E-8</v>
       </c>
       <c r="E14" s="2">
-        <v>6.6120099999999998E-9</v>
+        <v>2.11003E-8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +1212,16 @@
         <v>2018</v>
       </c>
       <c r="B15" s="2">
-        <v>1.20208E-8</v>
+        <v>9.5823000000000007E-9</v>
       </c>
       <c r="C15" s="2">
-        <v>1.16879E-8</v>
+        <v>3.8699100000000002E-13</v>
       </c>
       <c r="D15" s="2">
-        <v>8.4969400000000006E-9</v>
+        <v>3.9769399999999999E-8</v>
       </c>
       <c r="E15" s="2">
-        <v>1.4902000000000001E-9</v>
+        <v>1.20212E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1230,11 +1231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE73545-E92C-46B3-BF5F-41240F4F5C4B}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA403245-D84A-4DE7-949F-540D3DDB8720}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1244,6 +1245,277 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.7818199999999999E-8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.2842199999999994E-14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.0196900000000001E-8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5108299999999999E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7476E-8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.4054599999999998E-13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.8808700000000001E-8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.7746799999999999E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.63E-8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9799999999999999E-13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.7799999999999998E-8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.4200000000000002E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.9847400000000001E-8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.85166E-13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.3866900000000007E-8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5696699999999999E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1670200000000001E-8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.5008299999999999E-13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.8934300000000003E-8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.76221E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.6616800000000002E-8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.19649E-14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.2916000000000002E-8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.3204000000000001E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.19625E-8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.2888200000000005E-14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.7964699999999997E-8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.433E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.6739499999999998E-14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.3039699999999999E-13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.9189200000000002E-8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.2172900000000001E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.16E-8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.5299999999999998E-13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.8E-8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.1500000000000001E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.3200000000000001E-8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.04E-13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.3399999999999998E-8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.99E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.4142500000000001E-8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.7790200000000002E-12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.5228300000000003E-8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.6092299999999999E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.05906E-8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.8848100000000001E-14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.77528E-8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4181099999999999E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.02795E-8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.1084300000000001E-12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.9022699999999999E-8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.11003E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.5823000000000007E-9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.8699100000000002E-13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.9769399999999999E-8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.20212E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE73545-E92C-46B3-BF5F-41240F4F5C4B}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
@@ -1261,16 +1533,16 @@
         <v>2007</v>
       </c>
       <c r="B2" s="2">
-        <v>8.1517700000000003E-9</v>
+        <v>1.6887799999999999E-13</v>
       </c>
       <c r="C2" s="2">
-        <v>1.56406E-13</v>
+        <v>2.34438E-14</v>
       </c>
       <c r="D2" s="2">
-        <v>2.2142899999999998E-9</v>
+        <v>1.37268E-8</v>
       </c>
       <c r="E2" s="2">
-        <v>5.4226500000000001E-9</v>
+        <v>2.0286800000000001E-8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,16 +1550,16 @@
         <v>2008</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5431300000000002E-13</v>
+        <v>7.7953899999999999E-9</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0099999999999999E-8</v>
+        <v>2.21589E-14</v>
       </c>
       <c r="D3" s="2">
-        <v>1.4588600000000001E-9</v>
+        <v>1.6084699999999998E-8</v>
       </c>
       <c r="E3" s="2">
-        <v>2.1387199999999998E-9</v>
+        <v>6.6834800000000002E-9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1567,16 @@
         <v>2009</v>
       </c>
       <c r="B4" s="2">
-        <v>2.89293E-8</v>
+        <v>1.4457499999999999E-10</v>
       </c>
       <c r="C4" s="2">
-        <v>3.3630600000000002E-13</v>
+        <v>2.67225E-14</v>
       </c>
       <c r="D4" s="2">
-        <v>1.60925E-9</v>
+        <v>1.6400199999999999E-8</v>
       </c>
       <c r="E4" s="2">
-        <v>1.2776300000000001E-9</v>
+        <v>8.7628700000000004E-9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,16 +1584,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="2">
-        <v>5.5123700000000003E-10</v>
+        <v>1.18594E-14</v>
       </c>
       <c r="C5" s="2">
-        <v>7.8222200000000006E-12</v>
+        <v>4.27721E-9</v>
       </c>
       <c r="D5" s="2">
-        <v>3.5307100000000001E-9</v>
+        <v>1.5103200000000001E-8</v>
       </c>
       <c r="E5" s="2">
-        <v>2.45226E-9</v>
+        <v>6.7078200000000001E-9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1601,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="2">
-        <v>9.0562000000000002E-10</v>
+        <v>3.2778499999999998E-9</v>
       </c>
       <c r="C6" s="2">
-        <v>4.2435699999999998E-14</v>
+        <v>1.03978E-13</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7453700000000003E-9</v>
+        <v>1.5667999999999998E-8</v>
       </c>
       <c r="E6" s="2">
-        <v>2.34576E-9</v>
+        <v>6.0265700000000002E-9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1618,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="2">
-        <v>6.9460900000000001E-11</v>
+        <v>6.7146799999999998E-9</v>
       </c>
       <c r="C7" s="2">
-        <v>1.11671E-13</v>
+        <v>2.1415299999999999E-14</v>
       </c>
       <c r="D7" s="2">
-        <v>2.5572299999999999E-9</v>
+        <v>1.6422400000000002E-8</v>
       </c>
       <c r="E7" s="2">
-        <v>1.9220700000000002E-9</v>
+        <v>5.6421699999999998E-9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1635,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="2">
-        <v>3.3613800000000002E-10</v>
+        <v>1.2172900000000001E-13</v>
       </c>
       <c r="C8" s="2">
-        <v>9.0973399999999996E-14</v>
+        <v>1.25608E-10</v>
       </c>
       <c r="D8" s="2">
-        <v>5.29312E-9</v>
+        <v>1.92541E-8</v>
       </c>
       <c r="E8" s="2">
-        <v>1.9139100000000001E-9</v>
+        <v>5.9857299999999998E-9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,16 +1652,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="2">
-        <v>2.78449E-8</v>
+        <v>1.15052E-7</v>
       </c>
       <c r="C9" s="2">
-        <v>1.4113299999999999E-13</v>
+        <v>2.4520800000000001E-7</v>
       </c>
       <c r="D9" s="2">
-        <v>5.0268400000000004E-9</v>
+        <v>1.4500399999999999E-8</v>
       </c>
       <c r="E9" s="2">
-        <v>1.45907E-9</v>
+        <v>4.7202799999999997E-16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,16 +1669,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="2">
-        <v>1.08356E-8</v>
+        <v>9.49828E-9</v>
       </c>
       <c r="C10" s="2">
-        <v>3.5237899999999999E-13</v>
+        <v>2.1588899999999999E-14</v>
       </c>
       <c r="D10" s="2">
-        <v>5.5609300000000002E-9</v>
+        <v>2.02631E-8</v>
       </c>
       <c r="E10" s="2">
-        <v>1.5441999999999999E-9</v>
+        <v>5.4239699999999998E-9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,16 +1686,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="2">
-        <v>2.2070600000000001E-8</v>
+        <v>1.0139099999999999E-8</v>
       </c>
       <c r="C11" s="2">
-        <v>6.7743499999999998E-14</v>
+        <v>6.4877699999999995E-14</v>
       </c>
       <c r="D11" s="2">
-        <v>4.9640200000000004E-9</v>
+        <v>2.1099700000000001E-8</v>
       </c>
       <c r="E11" s="2">
-        <v>1.1999899999999999E-9</v>
+        <v>5.6962100000000001E-9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,16 +1703,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="2">
-        <v>3.6372499999999997E-8</v>
+        <v>9.5032E-9</v>
       </c>
       <c r="C12" s="2">
-        <v>1.08505E-13</v>
+        <v>2.90548E-15</v>
       </c>
       <c r="D12" s="2">
-        <v>4.8995499999999997E-9</v>
+        <v>2.0734900000000001E-8</v>
       </c>
       <c r="E12" s="2">
-        <v>2.34398E-9</v>
+        <v>7.4573199999999996E-9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,16 +1720,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="2">
-        <v>3.2683399999999997E-8</v>
+        <v>1.0258199999999999E-8</v>
       </c>
       <c r="C13" s="2">
-        <v>5.4884700000000001E-14</v>
+        <v>2.6242599999999999E-14</v>
       </c>
       <c r="D13" s="2">
-        <v>3.6608900000000002E-9</v>
+        <v>1.67938E-8</v>
       </c>
       <c r="E13" s="2">
-        <v>3.07167E-9</v>
+        <v>7.2340200000000002E-9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,16 +1737,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="2">
-        <v>2.1824999999999999E-8</v>
+        <v>4.5108200000000004E-9</v>
       </c>
       <c r="C14" s="2">
-        <v>1.7480199999999999E-9</v>
+        <v>9.98202E-14</v>
       </c>
       <c r="D14" s="2">
-        <v>1.1110100000000001E-9</v>
+        <v>1.60386E-8</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3333400000000001E-9</v>
+        <v>6.9135700000000001E-9</v>
       </c>
     </row>
   </sheetData>
